--- a/Mail/ChinaUnion_Agent/Template/上海联通佣金告知单_模板.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/上海联通佣金告知单_模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="14760" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="14760" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="明细表" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>代理商名称</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,7 +1216,7 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1231,8 +1235,11 @@
       <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -1251,8 +1258,9 @@
       <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>61</v>
       </c>
@@ -1271,9 +1279,15 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -1347,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
